--- a/rawdata/t1.xlsx
+++ b/rawdata/t1.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C1FD64-D681-4D60-A716-74299508AA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{735710DE-A2A9-4983-9AAC-1D4CCE862B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,96 @@
   </si>
   <si>
     <t>2h47m</t>
+  </si>
+  <si>
+    <t>4h8m</t>
+  </si>
+  <si>
+    <t>1h31m</t>
+  </si>
+  <si>
+    <t>3h12m</t>
+  </si>
+  <si>
+    <t>1h3m</t>
+  </si>
+  <si>
+    <t>2h26m</t>
+  </si>
+  <si>
+    <t>1h11m</t>
+  </si>
+  <si>
+    <t>2h13m</t>
+  </si>
+  <si>
+    <t>3h13m</t>
+  </si>
+  <si>
+    <t>3h57m</t>
+  </si>
+  <si>
+    <t>3h10m</t>
+  </si>
+  <si>
+    <t>2h30m</t>
+  </si>
+  <si>
+    <t>1h57m</t>
+  </si>
+  <si>
+    <t>4h4m</t>
+  </si>
+  <si>
+    <t>4h16m</t>
+  </si>
+  <si>
+    <t>1h32m</t>
+  </si>
+  <si>
+    <t>4h3m</t>
+  </si>
+  <si>
+    <t>1h38m</t>
+  </si>
+  <si>
+    <t>1h49m</t>
+  </si>
+  <si>
+    <t>4h2m</t>
+  </si>
+  <si>
+    <t>2h21</t>
+  </si>
+  <si>
+    <t>3h6m</t>
+  </si>
+  <si>
+    <t>1h45m</t>
+  </si>
+  <si>
+    <t>3h20m</t>
+  </si>
+  <si>
+    <t>4h36m</t>
+  </si>
+  <si>
+    <t>2h28m</t>
+  </si>
+  <si>
+    <t>4h41m</t>
+  </si>
+  <si>
+    <t>1h40m</t>
+  </si>
+  <si>
+    <t>4h22m</t>
+  </si>
+  <si>
+    <t>1h58m</t>
+  </si>
+  <si>
+    <t>2h45m</t>
   </si>
 </sst>
 </file>
@@ -574,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1369,6 +1459,421 @@
         <v>0.37083333333333335</v>
       </c>
     </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2">
+        <v>44585</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35">
+        <v>89</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36">
+        <v>119</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.3444444444444445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>44587</v>
+      </c>
+      <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37">
+        <v>82</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2">
+        <v>44588</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38">
+        <v>91</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2">
+        <v>44589</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39">
+        <v>59</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.38125000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2">
+        <v>44590</v>
+      </c>
+      <c r="B40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40">
+        <v>134</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.34097222222222223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.32222222222222224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2">
+        <v>44592</v>
+      </c>
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42">
+        <v>202</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2">
+        <v>44593</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43">
+        <v>120</v>
+      </c>
+      <c r="G43" s="1">
+        <v>0.33749999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>105</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.34513888888888888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2">
+        <v>44595</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45">
+        <v>112</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.34930555555555554</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2">
+        <v>44596</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46">
+        <v>126</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.35902777777777778</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2">
+        <v>44597</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47">
+        <v>76</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.38125000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2">
+        <v>44598</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48">
+        <v>78</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.37152777777777773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49">
+        <v>74</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.34583333333333338</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2">
+        <v>44600</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>93</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.34930555555555554</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="2">
+        <v>44601</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F51">
+        <v>140</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.34791666666666665</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2">
+        <v>44602</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52">
+        <v>97</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="2">
+        <v>44603</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>88</v>
+      </c>
+      <c r="F53">
+        <v>116</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
+        <v>90</v>
+      </c>
+      <c r="F54">
+        <v>76</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="2">
+        <v>44605</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55">
+        <v>87</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2">
+        <v>44606</v>
+      </c>
+      <c r="B56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56">
+        <v>115</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.34027777777777773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57">
+        <v>83</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.33124999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="2"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="2"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="2"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="2"/>
+      <c r="G63" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
